--- a/data/trans_orig/P79A1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>2233</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5837936175114785</v>
+        <v>0.5837936175114786</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>3421</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3810844577876585</v>
+        <v>0.3810844577876586</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>2233</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4162063824885214</v>
+        <v>0.4162063824885215</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>3421</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6189155422123414</v>
+        <v>0.6189155422123415</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>4848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1608</v>
+        <v>1683</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>7441</v>
@@ -951,7 +951,7 @@
         <v>0.6515003296388294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2160637035915976</v>
+        <v>0.2262150273704253</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>7275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5098</v>
+        <v>4825</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>7908</v>
@@ -972,7 +972,7 @@
         <v>0.9199149818277164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.644710669262565</v>
+        <v>0.6101385789114818</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -984,19 +984,19 @@
         <v>12123</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7808</v>
+        <v>7238</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14844</v>
+        <v>14674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7897912198929753</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5087259694594883</v>
+        <v>0.4715765828104668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9671287064979563</v>
+        <v>0.9559945486674599</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5832</v>
+        <v>5756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3484996703611706</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7838324807148155</v>
+        <v>0.7734949992511595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2810</v>
+        <v>3083</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08008501817228371</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3552893307374349</v>
+        <v>0.3898614210885155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1055,19 +1055,19 @@
         <v>3226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505</v>
+        <v>675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7541</v>
+        <v>8111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2102087801070247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0328712935020407</v>
+        <v>0.04400545133254014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4912740305405116</v>
+        <v>0.5284234171895332</v>
       </c>
     </row>
     <row r="9">
@@ -1341,7 +1341,7 @@
         <v>8584</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6196</v>
+        <v>6152</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>9916</v>
@@ -1350,7 +1350,7 @@
         <v>0.8656252172503817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6248091062151784</v>
+        <v>0.6204463717447722</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1362,16 +1362,16 @@
         <v>27475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24431</v>
+        <v>24447</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>28807</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9537439761665544</v>
+        <v>0.9537439761665543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8481036919731554</v>
+        <v>0.8486308433526444</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3720</v>
+        <v>3764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1343747827496183</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3751908937848213</v>
+        <v>0.3795536282552263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1428,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4376</v>
+        <v>4360</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04625602383344576</v>
+        <v>0.04625602383344575</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1518963080268448</v>
+        <v>0.1513691566473557</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>30961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1550,19 +1550,19 @@
         <v>22604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1571,19 +1571,19 @@
         <v>53565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="17">
@@ -1600,19 +1600,19 @@
         <v>3781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1621,19 +1621,19 @@
         <v>2895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1642,19 +1642,19 @@
         <v>6676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="18">
